--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>C1qb</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>C1qb</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.229693</v>
+        <v>0.9717933333333333</v>
       </c>
       <c r="H2">
-        <v>0.689079</v>
+        <v>2.91538</v>
       </c>
       <c r="I2">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="J2">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>0.401744771343</v>
+        <v>8.914015354746667</v>
       </c>
       <c r="R2">
-        <v>3.615702942087</v>
+        <v>80.22613819272</v>
       </c>
       <c r="S2">
-        <v>9.092061964091811E-07</v>
+        <v>3.200038189389385E-05</v>
       </c>
       <c r="T2">
-        <v>9.092061964091813E-07</v>
+        <v>3.200038189389384E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.229693</v>
+        <v>0.9717933333333333</v>
       </c>
       <c r="H3">
-        <v>0.689079</v>
+        <v>2.91538</v>
       </c>
       <c r="I3">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="J3">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>32.85426535179334</v>
+        <v>139.0009971589778</v>
       </c>
       <c r="R3">
-        <v>295.68838816614</v>
+        <v>1251.0089744308</v>
       </c>
       <c r="S3">
-        <v>7.435392758557789E-05</v>
+        <v>0.0004989990274529603</v>
       </c>
       <c r="T3">
-        <v>7.43539275855779E-05</v>
+        <v>0.0004989990274529603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.229693</v>
+        <v>0.9717933333333333</v>
       </c>
       <c r="H4">
-        <v>0.689079</v>
+        <v>2.91538</v>
       </c>
       <c r="I4">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="J4">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>30.504335682716</v>
+        <v>164.4631062093356</v>
       </c>
       <c r="R4">
-        <v>274.539021144444</v>
+        <v>1480.16795588402</v>
       </c>
       <c r="S4">
-        <v>6.903569877799812E-05</v>
+        <v>0.0005904053332544806</v>
       </c>
       <c r="T4">
-        <v>6.903569877799812E-05</v>
+        <v>0.0005904053332544806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.229693</v>
+        <v>0.9717933333333333</v>
       </c>
       <c r="H5">
-        <v>0.689079</v>
+        <v>2.91538</v>
       </c>
       <c r="I5">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="J5">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>5.283562539930666</v>
+        <v>15.69476909609556</v>
       </c>
       <c r="R5">
-        <v>47.552062859376</v>
+        <v>141.25292186486</v>
       </c>
       <c r="S5">
-        <v>1.195746190886697E-05</v>
+        <v>5.634257793196435E-05</v>
       </c>
       <c r="T5">
-        <v>1.195746190886697E-05</v>
+        <v>5.634257793196433E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.229693</v>
+        <v>0.9717933333333333</v>
       </c>
       <c r="H6">
-        <v>0.689079</v>
+        <v>2.91538</v>
       </c>
       <c r="I6">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="J6">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>12.30843973346167</v>
+        <v>53.20047910311333</v>
       </c>
       <c r="R6">
-        <v>110.775957601155</v>
+        <v>478.80431192802</v>
       </c>
       <c r="S6">
-        <v>2.785576931438838E-05</v>
+        <v>0.0001909841502944246</v>
       </c>
       <c r="T6">
-        <v>2.785576931438839E-05</v>
+        <v>0.0001909841502944246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.229693</v>
+        <v>0.9717933333333333</v>
       </c>
       <c r="H7">
-        <v>0.689079</v>
+        <v>2.91538</v>
       </c>
       <c r="I7">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="J7">
-        <v>0.0002494582147107716</v>
+        <v>0.002213293582184407</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>28.87406021451201</v>
+        <v>235.2609307486822</v>
       </c>
       <c r="R7">
-        <v>259.866541930608</v>
+        <v>2117.34837673814</v>
       </c>
       <c r="S7">
-        <v>6.534615092753105E-05</v>
+        <v>0.0008445621113566837</v>
       </c>
       <c r="T7">
-        <v>6.534615092753105E-05</v>
+        <v>0.0008445621113566837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.173319</v>
       </c>
       <c r="I8">
-        <v>6.27443998662798E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="J8">
-        <v>6.274439986627981E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>0.101047923423</v>
+        <v>0.529937170204</v>
       </c>
       <c r="R8">
-        <v>0.909431310807</v>
+        <v>4.769434531836</v>
       </c>
       <c r="S8">
-        <v>2.286859834002238E-07</v>
+        <v>1.90241896063902E-06</v>
       </c>
       <c r="T8">
-        <v>2.286859834002239E-07</v>
+        <v>1.90241896063902E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.173319</v>
       </c>
       <c r="I9">
-        <v>6.27443998662798E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="J9">
-        <v>6.274439986627981E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>8.263593022726667</v>
@@ -1013,10 +1013,10 @@
         <v>74.37233720454</v>
       </c>
       <c r="S9">
-        <v>1.870169947887655E-05</v>
+        <v>2.966543381621594E-05</v>
       </c>
       <c r="T9">
-        <v>1.870169947887655E-05</v>
+        <v>2.966543381621594E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.173319</v>
       </c>
       <c r="I10">
-        <v>6.27443998662798E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="J10">
-        <v>6.274439986627981E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>7.672532403676</v>
+        <v>9.777312427572333</v>
       </c>
       <c r="R10">
-        <v>69.052791633084</v>
+        <v>87.99581184815101</v>
       </c>
       <c r="S10">
-        <v>1.736404429173412E-05</v>
+        <v>3.509952800469691E-05</v>
       </c>
       <c r="T10">
-        <v>1.736404429173412E-05</v>
+        <v>3.509952800469691E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.173319</v>
       </c>
       <c r="I11">
-        <v>6.27443998662798E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="J11">
-        <v>6.274439986627981E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>1.328935834437333</v>
+        <v>0.9330521870103333</v>
       </c>
       <c r="R11">
-        <v>11.960422509936</v>
+        <v>8.397469683093</v>
       </c>
       <c r="S11">
-        <v>3.007572920641776E-06</v>
+        <v>3.349559667895824E-06</v>
       </c>
       <c r="T11">
-        <v>3.007572920641777E-06</v>
+        <v>3.349559667895823E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.173319</v>
       </c>
       <c r="I12">
-        <v>6.27443998662798E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="J12">
-        <v>6.274439986627981E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>3.095851805328333</v>
+        <v>3.162762260039</v>
       </c>
       <c r="R12">
-        <v>27.862666247955</v>
+        <v>28.464860340351</v>
       </c>
       <c r="S12">
-        <v>7.006357880301794E-06</v>
+        <v>1.13539853963735E-05</v>
       </c>
       <c r="T12">
-        <v>7.006357880301796E-06</v>
+        <v>1.13539853963735E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.173319</v>
       </c>
       <c r="I13">
-        <v>6.27443998662798E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="J13">
-        <v>6.274439986627981E-05</v>
+        <v>0.0001315800445810218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>7.262481141232001</v>
+        <v>13.98623481550633</v>
       </c>
       <c r="R13">
-        <v>65.36233027108801</v>
+        <v>125.876113339557</v>
       </c>
       <c r="S13">
-        <v>1.643603931132534E-05</v>
+        <v>5.020911873520058E-05</v>
       </c>
       <c r="T13">
-        <v>1.643603931132534E-05</v>
+        <v>5.020911873520058E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>393.0249046666666</v>
+        <v>103.2173256666667</v>
       </c>
       <c r="H14">
-        <v>1179.074714</v>
+        <v>309.651977</v>
       </c>
       <c r="I14">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="J14">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>687.4206025321379</v>
+        <v>946.7865175742654</v>
       </c>
       <c r="R14">
-        <v>6186.785422789241</v>
+        <v>8521.078658168388</v>
       </c>
       <c r="S14">
-        <v>0.001555731688236302</v>
+        <v>0.003398864476740334</v>
       </c>
       <c r="T14">
-        <v>0.001555731688236302</v>
+        <v>0.003398864476740333</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>393.0249046666666</v>
+        <v>103.2173256666667</v>
       </c>
       <c r="H15">
-        <v>1179.074714</v>
+        <v>309.651977</v>
       </c>
       <c r="I15">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="J15">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>56216.53471277725</v>
+        <v>14763.74729031854</v>
       </c>
       <c r="R15">
-        <v>505948.8124149952</v>
+        <v>132873.7256128668</v>
       </c>
       <c r="S15">
-        <v>0.1272261031068164</v>
+        <v>0.05300030712013064</v>
       </c>
       <c r="T15">
-        <v>0.1272261031068164</v>
+        <v>0.05300030712013063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>393.0249046666666</v>
+        <v>103.2173256666667</v>
       </c>
       <c r="H16">
-        <v>1179.074714</v>
+        <v>309.651977</v>
       </c>
       <c r="I16">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="J16">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>52195.59857557458</v>
+        <v>17468.16057641945</v>
       </c>
       <c r="R16">
-        <v>469760.3871801713</v>
+        <v>157213.445187775</v>
       </c>
       <c r="S16">
-        <v>0.1181261463380226</v>
+        <v>0.06270886768571979</v>
       </c>
       <c r="T16">
-        <v>0.1181261463380226</v>
+        <v>0.06270886768571977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>393.0249046666666</v>
+        <v>103.2173256666667</v>
       </c>
       <c r="H17">
-        <v>1179.074714</v>
+        <v>309.651977</v>
       </c>
       <c r="I17">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="J17">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>9040.6397389412</v>
+        <v>1666.992391785802</v>
       </c>
       <c r="R17">
-        <v>81365.75765047081</v>
+        <v>15002.93152607222</v>
       </c>
       <c r="S17">
-        <v>0.02046026795238749</v>
+        <v>0.005984328165079452</v>
       </c>
       <c r="T17">
-        <v>0.02046026795238749</v>
+        <v>0.00598432816507945</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>393.0249046666666</v>
+        <v>103.2173256666667</v>
       </c>
       <c r="H18">
-        <v>1179.074714</v>
+        <v>309.651977</v>
       </c>
       <c r="I18">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="J18">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>21060.82184846374</v>
+        <v>5650.595645036404</v>
       </c>
       <c r="R18">
-        <v>189547.3966361737</v>
+        <v>50855.36080532763</v>
       </c>
       <c r="S18">
-        <v>0.04766366880664257</v>
+        <v>0.02028504679127033</v>
       </c>
       <c r="T18">
-        <v>0.04766366880664258</v>
+        <v>0.02028504679127033</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>393.0249046666666</v>
+        <v>103.2173256666667</v>
       </c>
       <c r="H19">
-        <v>1179.074714</v>
+        <v>309.651977</v>
       </c>
       <c r="I19">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="J19">
-        <v>0.4268449236808168</v>
+        <v>0.235081098657744</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>49406.05400751513</v>
+        <v>24987.8274246203</v>
       </c>
       <c r="R19">
-        <v>444654.4860676362</v>
+        <v>224890.4468215827</v>
       </c>
       <c r="S19">
-        <v>0.1118130057887114</v>
+        <v>0.08970368441880348</v>
       </c>
       <c r="T19">
-        <v>0.1118130057887114</v>
+        <v>0.08970368441880347</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1159013333333333</v>
+        <v>40.13920833333333</v>
       </c>
       <c r="H20">
-        <v>0.347704</v>
+        <v>120.417625</v>
       </c>
       <c r="I20">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="J20">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>0.202717342968</v>
+        <v>368.1868429611666</v>
       </c>
       <c r="R20">
-        <v>1.824456086712</v>
+        <v>3313.681586650499</v>
       </c>
       <c r="S20">
-        <v>4.58778501907993E-07</v>
+        <v>0.001321752219866947</v>
       </c>
       <c r="T20">
-        <v>4.587785019079931E-07</v>
+        <v>0.001321752219866946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1159013333333333</v>
+        <v>40.13920833333333</v>
       </c>
       <c r="H21">
-        <v>0.347704</v>
+        <v>120.417625</v>
       </c>
       <c r="I21">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="J21">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>16.57801134540445</v>
+        <v>5741.333874320278</v>
       </c>
       <c r="R21">
-        <v>149.20210210864</v>
+        <v>51672.0048688825</v>
       </c>
       <c r="S21">
-        <v>3.751842392122786E-05</v>
+        <v>0.02061078753479659</v>
       </c>
       <c r="T21">
-        <v>3.751842392122787E-05</v>
+        <v>0.02061078753479659</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1159013333333333</v>
+        <v>40.13920833333333</v>
       </c>
       <c r="H22">
-        <v>0.347704</v>
+        <v>120.417625</v>
       </c>
       <c r="I22">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="J22">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>15.39225478388267</v>
+        <v>6793.02754695818</v>
       </c>
       <c r="R22">
-        <v>138.530293054944</v>
+        <v>61137.24792262362</v>
       </c>
       <c r="S22">
-        <v>3.483488628721099E-05</v>
+        <v>0.02438625771523371</v>
       </c>
       <c r="T22">
-        <v>3.483488628721099E-05</v>
+        <v>0.02438625771523371</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1159013333333333</v>
+        <v>40.13920833333333</v>
       </c>
       <c r="H23">
-        <v>0.347704</v>
+        <v>120.417625</v>
       </c>
       <c r="I23">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="J23">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>2.666045300152889</v>
+        <v>648.2608851934306</v>
       </c>
       <c r="R23">
-        <v>23.994407701376</v>
+        <v>5834.347966740875</v>
       </c>
       <c r="S23">
-        <v>6.033643944396334E-06</v>
+        <v>0.002327188709857568</v>
       </c>
       <c r="T23">
-        <v>6.033643944396335E-06</v>
+        <v>0.002327188709857568</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1159013333333333</v>
+        <v>40.13920833333333</v>
       </c>
       <c r="H24">
-        <v>0.347704</v>
+        <v>120.417625</v>
       </c>
       <c r="I24">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="J24">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>6.210744673808889</v>
+        <v>2197.406630510958</v>
       </c>
       <c r="R24">
-        <v>55.89670206428</v>
+        <v>19776.65967459862</v>
       </c>
       <c r="S24">
-        <v>1.405580842499931E-05</v>
+        <v>0.007888459751763974</v>
       </c>
       <c r="T24">
-        <v>1.405580842499931E-05</v>
+        <v>0.007888459751763974</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1159013333333333</v>
+        <v>40.13920833333333</v>
       </c>
       <c r="H25">
-        <v>0.347704</v>
+        <v>120.417625</v>
       </c>
       <c r="I25">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="J25">
-        <v>0.0001258747097035233</v>
+        <v>0.0914184622911554</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>14.56963023517867</v>
+        <v>9717.279577978097</v>
       </c>
       <c r="R25">
-        <v>131.126672116608</v>
+        <v>87455.51620180286</v>
       </c>
       <c r="S25">
-        <v>3.29731686237808E-05</v>
+        <v>0.03488401635963661</v>
       </c>
       <c r="T25">
-        <v>3.29731686237808E-05</v>
+        <v>0.03488401635963661</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>51.86711500000001</v>
+        <v>294.6850383333334</v>
       </c>
       <c r="H26">
-        <v>155.601345</v>
+        <v>884.055115</v>
       </c>
       <c r="I26">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243352</v>
       </c>
       <c r="J26">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243351</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>90.718229357865</v>
+        <v>2703.071596002007</v>
       </c>
       <c r="R26">
-        <v>816.4640642207851</v>
+        <v>24327.64436401806</v>
       </c>
       <c r="S26">
-        <v>0.000205308400116101</v>
+        <v>0.009703744038598826</v>
       </c>
       <c r="T26">
-        <v>0.000205308400116101</v>
+        <v>0.009703744038598822</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.86711500000001</v>
+        <v>294.6850383333334</v>
       </c>
       <c r="H27">
-        <v>155.601345</v>
+        <v>884.055115</v>
       </c>
       <c r="I27">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243352</v>
       </c>
       <c r="J27">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243351</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>7418.841493828635</v>
+        <v>42150.43751706288</v>
       </c>
       <c r="R27">
-        <v>66769.57344445771</v>
+        <v>379353.937653566</v>
       </c>
       <c r="S27">
-        <v>0.016789905276969</v>
+        <v>0.1513156578558593</v>
       </c>
       <c r="T27">
-        <v>0.016789905276969</v>
+        <v>0.1513156578558593</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.86711500000001</v>
+        <v>294.6850383333334</v>
       </c>
       <c r="H28">
-        <v>155.601345</v>
+        <v>884.055115</v>
       </c>
       <c r="I28">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243352</v>
       </c>
       <c r="J28">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243351</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>6888.202456557381</v>
+        <v>49871.52627552888</v>
       </c>
       <c r="R28">
-        <v>61993.82210901643</v>
+        <v>448843.7364797599</v>
       </c>
       <c r="S28">
-        <v>0.01558899281921429</v>
+        <v>0.179033558159452</v>
       </c>
       <c r="T28">
-        <v>0.01558899281921429</v>
+        <v>0.179033558159452</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.86711500000001</v>
+        <v>294.6850383333334</v>
       </c>
       <c r="H29">
-        <v>155.601345</v>
+        <v>884.055115</v>
       </c>
       <c r="I29">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243352</v>
       </c>
       <c r="J29">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243351</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>1193.084446928187</v>
+        <v>4759.256391327101</v>
       </c>
       <c r="R29">
-        <v>10737.76002235368</v>
+        <v>42833.30752194391</v>
       </c>
       <c r="S29">
-        <v>0.002700121692586726</v>
+        <v>0.01708523218689818</v>
       </c>
       <c r="T29">
-        <v>0.002700121692586726</v>
+        <v>0.01708523218689817</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>51.86711500000001</v>
+        <v>294.6850383333334</v>
       </c>
       <c r="H30">
-        <v>155.601345</v>
+        <v>884.055115</v>
       </c>
       <c r="I30">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243352</v>
       </c>
       <c r="J30">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243351</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>2779.376207050392</v>
+        <v>16132.42722099965</v>
       </c>
       <c r="R30">
-        <v>25014.38586345353</v>
+        <v>145191.8449889969</v>
       </c>
       <c r="S30">
-        <v>0.006290128085935809</v>
+        <v>0.05791372478089128</v>
       </c>
       <c r="T30">
-        <v>0.006290128085935809</v>
+        <v>0.05791372478089127</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.86711500000001</v>
+        <v>294.6850383333334</v>
       </c>
       <c r="H31">
-        <v>155.601345</v>
+        <v>884.055115</v>
       </c>
       <c r="I31">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243352</v>
       </c>
       <c r="J31">
-        <v>0.05633031006647257</v>
+        <v>0.6711555654243351</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>6520.068968854162</v>
+        <v>71340.14405944794</v>
       </c>
       <c r="R31">
-        <v>58680.62071968745</v>
+        <v>642061.2965350314</v>
       </c>
       <c r="S31">
-        <v>0.01475585379165064</v>
+        <v>0.2561036484026357</v>
       </c>
       <c r="T31">
-        <v>0.01475585379165064</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>475.472046</v>
-      </c>
-      <c r="H32">
-        <v>1426.416138</v>
-      </c>
-      <c r="I32">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="J32">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.749051</v>
-      </c>
-      <c r="N32">
-        <v>5.247153</v>
-      </c>
-      <c r="O32">
-        <v>0.003644723415756577</v>
-      </c>
-      <c r="P32">
-        <v>0.003644723415756578</v>
-      </c>
-      <c r="Q32">
-        <v>831.6248575283461</v>
-      </c>
-      <c r="R32">
-        <v>7484.623717755114</v>
-      </c>
-      <c r="S32">
-        <v>0.001882086656722456</v>
-      </c>
-      <c r="T32">
-        <v>0.001882086656722457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>475.472046</v>
-      </c>
-      <c r="H33">
-        <v>1426.416138</v>
-      </c>
-      <c r="I33">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="J33">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>143.0355533333334</v>
-      </c>
-      <c r="N33">
-        <v>429.10666</v>
-      </c>
-      <c r="O33">
-        <v>0.2980616520156924</v>
-      </c>
-      <c r="P33">
-        <v>0.2980616520156925</v>
-      </c>
-      <c r="Q33">
-        <v>68009.40719414213</v>
-      </c>
-      <c r="R33">
-        <v>612084.6647472791</v>
-      </c>
-      <c r="S33">
-        <v>0.1539150695809213</v>
-      </c>
-      <c r="T33">
-        <v>0.1539150695809213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>475.472046</v>
-      </c>
-      <c r="H34">
-        <v>1426.416138</v>
-      </c>
-      <c r="I34">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="J34">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>132.804812</v>
-      </c>
-      <c r="N34">
-        <v>398.414436</v>
-      </c>
-      <c r="O34">
-        <v>0.2767425352500014</v>
-      </c>
-      <c r="P34">
-        <v>0.2767425352500014</v>
-      </c>
-      <c r="Q34">
-        <v>63144.97568028536</v>
-      </c>
-      <c r="R34">
-        <v>568304.7811225682</v>
-      </c>
-      <c r="S34">
-        <v>0.1429061614634075</v>
-      </c>
-      <c r="T34">
-        <v>0.1429061614634075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>475.472046</v>
-      </c>
-      <c r="H35">
-        <v>1426.416138</v>
-      </c>
-      <c r="I35">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="J35">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>23.00271466666667</v>
-      </c>
-      <c r="N35">
-        <v>69.008144</v>
-      </c>
-      <c r="O35">
-        <v>0.04793372678759353</v>
-      </c>
-      <c r="P35">
-        <v>0.04793372678759353</v>
-      </c>
-      <c r="Q35">
-        <v>10937.14780611421</v>
-      </c>
-      <c r="R35">
-        <v>98434.33025502787</v>
-      </c>
-      <c r="S35">
-        <v>0.02475233846384541</v>
-      </c>
-      <c r="T35">
-        <v>0.02475233846384542</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>475.472046</v>
-      </c>
-      <c r="H36">
-        <v>1426.416138</v>
-      </c>
-      <c r="I36">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="J36">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>53.58648166666666</v>
-      </c>
-      <c r="N36">
-        <v>160.759445</v>
-      </c>
-      <c r="O36">
-        <v>0.111665071229204</v>
-      </c>
-      <c r="P36">
-        <v>0.111665071229204</v>
-      </c>
-      <c r="Q36">
-        <v>25478.87407599149</v>
-      </c>
-      <c r="R36">
-        <v>229309.8666839234</v>
-      </c>
-      <c r="S36">
-        <v>0.05766235640100596</v>
-      </c>
-      <c r="T36">
-        <v>0.05766235640100597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>475.472046</v>
-      </c>
-      <c r="H37">
-        <v>1426.416138</v>
-      </c>
-      <c r="I37">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="J37">
-        <v>0.51638668892843</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>125.707184</v>
-      </c>
-      <c r="N37">
-        <v>377.1215520000001</v>
-      </c>
-      <c r="O37">
-        <v>0.261952291301752</v>
-      </c>
-      <c r="P37">
-        <v>0.261952291301752</v>
-      </c>
-      <c r="Q37">
-        <v>59770.25197337848</v>
-      </c>
-      <c r="R37">
-        <v>537932.2677604062</v>
-      </c>
-      <c r="S37">
-        <v>0.1352686763625273</v>
-      </c>
-      <c r="T37">
-        <v>0.1352686763625273</v>
+        <v>0.2561036484026356</v>
       </c>
     </row>
   </sheetData>
